--- a/templates/report2.xlsx
+++ b/templates/report2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\foreigners_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D216E992-76E9-4B57-8199-E134B0E70064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340D6E7-6845-4DA9-975A-4182800F58A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="уровень 1" sheetId="1" r:id="rId1"/>
@@ -140,18 +140,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -183,38 +177,38 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -498,42 +492,42 @@
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="67" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -545,65 +539,65 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="11"/>
+      <c r="C13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
